--- a/tiget/document/데이터정보.xlsx
+++ b/tiget/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A3F28-7DD5-425B-B2C3-06F0DC44D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB672960-B597-46F5-93BB-892DB4050B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1545" windowWidth="40170" windowHeight="13800" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19215" yWindow="1800" windowWidth="40170" windowHeight="13800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="606">
   <si>
     <t xml:space="preserve"> 유저이름</t>
   </si>
@@ -479,10 +479,6 @@
   </si>
   <si>
     <t>제주신화월드 카운트다운 2023 제주 (JSW COUNTDOWN 2023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이트 업 페스티벌 (2022 LIGHT UP FESTIVA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1001,114 +997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A0002</t>
-  </si>
-  <si>
-    <t>A0003</t>
-  </si>
-  <si>
-    <t>A0004</t>
-  </si>
-  <si>
-    <t>A0005</t>
-  </si>
-  <si>
-    <t>A0006</t>
-  </si>
-  <si>
-    <t>A0007</t>
-  </si>
-  <si>
-    <t>A0008</t>
-  </si>
-  <si>
-    <t>A0009</t>
-  </si>
-  <si>
-    <t>A0010</t>
-  </si>
-  <si>
-    <t>A0011</t>
-  </si>
-  <si>
-    <t>A0012</t>
-  </si>
-  <si>
-    <t>A0013</t>
-  </si>
-  <si>
-    <t>A0014</t>
-  </si>
-  <si>
-    <t>A0015</t>
-  </si>
-  <si>
-    <t>A0016</t>
-  </si>
-  <si>
-    <t>A0017</t>
-  </si>
-  <si>
-    <t>A0018</t>
-  </si>
-  <si>
-    <t>A0019</t>
-  </si>
-  <si>
-    <t>A0020</t>
-  </si>
-  <si>
-    <t>A0021</t>
-  </si>
-  <si>
-    <t>A0022</t>
-  </si>
-  <si>
-    <t>A0023</t>
-  </si>
-  <si>
-    <t>A0024</t>
-  </si>
-  <si>
-    <t>A0026</t>
-  </si>
-  <si>
-    <t>A0027</t>
-  </si>
-  <si>
-    <t>A0029</t>
-  </si>
-  <si>
-    <t>A0030</t>
-  </si>
-  <si>
-    <t>A0031</t>
-  </si>
-  <si>
-    <t>A0032</t>
-  </si>
-  <si>
-    <t>A0033</t>
-  </si>
-  <si>
-    <t>A0034</t>
-  </si>
-  <si>
-    <t>A0035</t>
-  </si>
-  <si>
-    <t>A0036</t>
-  </si>
-  <si>
-    <t>A0037</t>
-  </si>
-  <si>
-    <t>A0038</t>
-  </si>
-  <si>
-    <t>A0039</t>
-  </si>
-  <si>
     <t>CCM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1169,123 +1057,6 @@
   <si>
     <t>장르코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0002</t>
-  </si>
-  <si>
-    <t>C0003</t>
-  </si>
-  <si>
-    <t>C0004</t>
-  </si>
-  <si>
-    <t>C0005</t>
-  </si>
-  <si>
-    <t>C0006</t>
-  </si>
-  <si>
-    <t>C0007</t>
-  </si>
-  <si>
-    <t>C0008</t>
-  </si>
-  <si>
-    <t>C0009</t>
-  </si>
-  <si>
-    <t>C0010</t>
-  </si>
-  <si>
-    <t>C0011</t>
-  </si>
-  <si>
-    <t>C0012</t>
-  </si>
-  <si>
-    <t>C0013</t>
-  </si>
-  <si>
-    <t>C0014</t>
-  </si>
-  <si>
-    <t>C0015</t>
-  </si>
-  <si>
-    <t>C0016</t>
-  </si>
-  <si>
-    <t>C0017</t>
-  </si>
-  <si>
-    <t>C0018</t>
-  </si>
-  <si>
-    <t>C0019</t>
-  </si>
-  <si>
-    <t>C0020</t>
-  </si>
-  <si>
-    <t>C0021</t>
-  </si>
-  <si>
-    <t>C0022</t>
-  </si>
-  <si>
-    <t>C0023</t>
-  </si>
-  <si>
-    <t>C0024</t>
-  </si>
-  <si>
-    <t>C0025</t>
-  </si>
-  <si>
-    <t>C0026</t>
-  </si>
-  <si>
-    <t>C0027</t>
-  </si>
-  <si>
-    <t>C0028</t>
-  </si>
-  <si>
-    <t>C0029</t>
-  </si>
-  <si>
-    <t>C0030</t>
-  </si>
-  <si>
-    <t>C0031</t>
-  </si>
-  <si>
-    <t>C0032</t>
-  </si>
-  <si>
-    <t>C0033</t>
-  </si>
-  <si>
-    <t>C0034</t>
-  </si>
-  <si>
-    <t>C0035</t>
-  </si>
-  <si>
-    <t>C0036</t>
-  </si>
-  <si>
-    <t>C0037</t>
-  </si>
-  <si>
-    <t>C0038</t>
-  </si>
-  <si>
-    <t>C0039</t>
-  </si>
-  <si>
-    <t>C0040</t>
   </si>
   <si>
     <t>흰</t>
@@ -2031,244 +1802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0025</t>
-  </si>
-  <si>
-    <t>A0040</t>
-  </si>
-  <si>
-    <t>A0041</t>
-  </si>
-  <si>
-    <t>A0042</t>
-  </si>
-  <si>
-    <t>A0043</t>
-  </si>
-  <si>
-    <t>A0044</t>
-  </si>
-  <si>
-    <t>A0045</t>
-  </si>
-  <si>
-    <t>A0046</t>
-  </si>
-  <si>
-    <t>A0047</t>
-  </si>
-  <si>
-    <t>A0048</t>
-  </si>
-  <si>
-    <t>A0049</t>
-  </si>
-  <si>
-    <t>A0051</t>
-  </si>
-  <si>
-    <t>A0052</t>
-  </si>
-  <si>
-    <t>A0053</t>
-  </si>
-  <si>
-    <t>A0054</t>
-  </si>
-  <si>
-    <t>A0055</t>
-  </si>
-  <si>
-    <t>A0056</t>
-  </si>
-  <si>
-    <t>A0057</t>
-  </si>
-  <si>
-    <t>A0058</t>
-  </si>
-  <si>
-    <t>A0059</t>
-  </si>
-  <si>
-    <t>A0060</t>
-  </si>
-  <si>
-    <t>A0061</t>
-  </si>
-  <si>
-    <t>A0062</t>
-  </si>
-  <si>
-    <t>A0063</t>
-  </si>
-  <si>
-    <t>A0064</t>
-  </si>
-  <si>
-    <t>A0065</t>
-  </si>
-  <si>
-    <t>A0066</t>
-  </si>
-  <si>
-    <t>A0067</t>
-  </si>
-  <si>
-    <t>A0068</t>
-  </si>
-  <si>
-    <t>A0069</t>
-  </si>
-  <si>
-    <t>A0070</t>
-  </si>
-  <si>
-    <t>A0071</t>
-  </si>
-  <si>
-    <t>A0072</t>
-  </si>
-  <si>
-    <t>A0073</t>
-  </si>
-  <si>
-    <t>A0075</t>
-  </si>
-  <si>
-    <t>A0076</t>
-  </si>
-  <si>
-    <t>A0077</t>
-  </si>
-  <si>
-    <t>A0078</t>
-  </si>
-  <si>
-    <t>A0079</t>
-  </si>
-  <si>
-    <t>A0080</t>
-  </si>
-  <si>
-    <t>A0081</t>
-  </si>
-  <si>
-    <t>A0082</t>
-  </si>
-  <si>
-    <t>A0083</t>
-  </si>
-  <si>
-    <t>A0084</t>
-  </si>
-  <si>
-    <t>A0085</t>
-  </si>
-  <si>
-    <t>A0086</t>
-  </si>
-  <si>
-    <t>A0087</t>
-  </si>
-  <si>
-    <t>A0088</t>
-  </si>
-  <si>
-    <t>A0089</t>
-  </si>
-  <si>
-    <t>A0090</t>
-  </si>
-  <si>
-    <t>A0091</t>
-  </si>
-  <si>
-    <t>A0092</t>
-  </si>
-  <si>
-    <t>A0093</t>
-  </si>
-  <si>
-    <t>A0094</t>
-  </si>
-  <si>
-    <t>A0096</t>
-  </si>
-  <si>
-    <t>A0097</t>
-  </si>
-  <si>
-    <t>A0098</t>
-  </si>
-  <si>
-    <t>A0099</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>A0101</t>
-  </si>
-  <si>
-    <t>A0102</t>
-  </si>
-  <si>
-    <t>A0103</t>
-  </si>
-  <si>
-    <t>A0104</t>
-  </si>
-  <si>
-    <t>A0105</t>
-  </si>
-  <si>
-    <t>A0107</t>
-  </si>
-  <si>
-    <t>A0108</t>
-  </si>
-  <si>
-    <t>A0109</t>
-  </si>
-  <si>
-    <t>A0110</t>
-  </si>
-  <si>
-    <t>A0111</t>
-  </si>
-  <si>
-    <t>A0112</t>
-  </si>
-  <si>
-    <t>A0113</t>
-  </si>
-  <si>
-    <t>A0114</t>
-  </si>
-  <si>
-    <t>A0115</t>
-  </si>
-  <si>
-    <t>A0116</t>
-  </si>
-  <si>
-    <t>A0117</t>
-  </si>
-  <si>
-    <t>A0118</t>
-  </si>
-  <si>
-    <t>A0119</t>
-  </si>
-  <si>
-    <t>A0120</t>
-  </si>
-  <si>
     <t>락/메탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2333,42 +1866,11 @@
     <t>https://ticketimage.interpark.com/Play/image/large/22/22014710_p.gif</t>
   </si>
   <si>
-    <t>https://ticketimage.interpark.com/Play/image/large/22/22014800_p.gif</t>
-  </si>
-  <si>
-    <t>C0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/002/05/950/205950_20220211180346_500.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>박창근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2761,6 +2263,158 @@
   </si>
   <si>
     <t>G0001</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014800_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014800</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014517</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014975</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014872</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22013971</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015710</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014054</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015956</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014064</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015069</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016740</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016347</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22008291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014892</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015878</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016316</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016282</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015044</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016321</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015350</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016274</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016273</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016563</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22013785</t>
+  </si>
+  <si>
+    <t>라이트 업 페스티벌 (2023 LIGHT UP FESTIVAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016203</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015278</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015132</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015085</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22013875</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016130</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015072</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014878</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014627</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016554</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015770</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016768</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016588</t>
+  </si>
+  <si>
+    <t>공연형태</t>
+  </si>
+  <si>
+    <t>조회수</t>
+  </si>
+  <si>
+    <t>국내</t>
+  </si>
+  <si>
+    <t>페스티벌</t>
+  </si>
+  <si>
+    <t>내한</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2813,7 +2467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2842,6 +2496,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3142,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>641</v>
+        <v>478</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3157,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>642</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3134,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -3484,15 +3142,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>613</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>114</v>
@@ -3500,7 +3158,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -3508,7 +3166,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
@@ -3516,47 +3174,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>614</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>615</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -3564,15 +3222,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
@@ -3591,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3622,61 +3280,52 @@
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>650</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>534</v>
-      </c>
       <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>381</v>
       </c>
       <c r="E2">
         <v>1958</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>651</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>246</v>
-      </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="E3">
         <v>1970</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>652</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>383</v>
       </c>
       <c r="E4">
         <v>1973</v>
@@ -3686,37 +3335,31 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>248</v>
-      </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="E5">
         <v>1975</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>653</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="E6">
         <v>1975</v>
@@ -3726,197 +3369,167 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="E7">
         <v>1977</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>654</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="E8">
         <v>1978</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>655</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>252</v>
-      </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
       <c r="E9">
         <v>1978</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>656</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>253</v>
-      </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D10" t="s">
-        <v>461</v>
+        <v>385</v>
       </c>
       <c r="E10">
         <v>1984</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>657</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>254</v>
-      </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="E11">
         <v>1984</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>658</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>255</v>
-      </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>419</v>
       </c>
       <c r="E12">
         <v>1986</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>659</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>256</v>
-      </c>
       <c r="B13" t="s">
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>1988</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>660</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>257</v>
-      </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D14" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="E14">
         <v>1991</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>661</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>258</v>
-      </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>386</v>
       </c>
       <c r="E15">
         <v>1991</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>659</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>259</v>
-      </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D16" t="s">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="E16">
         <v>1993</v>
@@ -3925,18 +3538,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>260</v>
-      </c>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D17" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="E17">
         <v>1993</v>
@@ -3945,78 +3555,66 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>261</v>
-      </c>
+    <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D18" t="s">
-        <v>467</v>
+        <v>391</v>
       </c>
       <c r="E18">
         <v>1994</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>262</v>
-      </c>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D19" t="s">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="E19">
         <v>1994</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>263</v>
-      </c>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>367</v>
       </c>
       <c r="E20">
         <v>1995</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>264</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D21" t="s">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="E21">
         <v>1996</v>
@@ -4025,138 +3623,117 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>265</v>
-      </c>
+    <row r="22" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="E22">
         <v>1996</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>266</v>
-      </c>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>418</v>
       </c>
       <c r="E23">
         <v>1997</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>267</v>
-      </c>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>420</v>
       </c>
       <c r="E24">
         <v>1997</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>268</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D25" t="s">
-        <v>524</v>
+        <v>448</v>
       </c>
       <c r="E25">
         <v>1997</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>535</v>
-      </c>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D26" t="s">
-        <v>468</v>
+        <v>392</v>
       </c>
       <c r="E26">
         <v>1998</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>269</v>
-      </c>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27">
         <v>1998</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>270</v>
-      </c>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D28" t="s">
-        <v>469</v>
+        <v>393</v>
       </c>
       <c r="E28">
         <v>1998</v>
@@ -4165,38 +3742,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>635</v>
-      </c>
+    <row r="29" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D29" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="E29">
         <v>1998</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>271</v>
-      </c>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D30" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
       <c r="E30">
         <v>1999</v>
@@ -4205,18 +3776,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>272</v>
-      </c>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D31" t="s">
-        <v>471</v>
+        <v>395</v>
       </c>
       <c r="E31">
         <v>1999</v>
@@ -4225,98 +3793,83 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>273</v>
-      </c>
+    <row r="32" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="E32">
         <v>1999</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>274</v>
-      </c>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D33" t="s">
-        <v>526</v>
+        <v>450</v>
       </c>
       <c r="E33">
         <v>1999</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>275</v>
-      </c>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>634</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D34" t="s">
-        <v>633</v>
+        <v>476</v>
       </c>
       <c r="E34">
         <v>1999</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>276</v>
-      </c>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="C35" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D35" t="s">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>277</v>
-      </c>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="C36" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D36" t="s">
-        <v>530</v>
+        <v>454</v>
       </c>
       <c r="E36">
         <v>2001</v>
@@ -4325,38 +3878,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>278</v>
-      </c>
+    <row r="37" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="C37" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D37" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="E37">
         <v>2001</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>279</v>
-      </c>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>396</v>
       </c>
       <c r="E38">
         <v>2002</v>
@@ -4365,38 +3912,32 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>280</v>
-      </c>
+    <row r="39" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="E39">
         <v>2002</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>281</v>
-      </c>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D40" t="s">
-        <v>474</v>
+        <v>398</v>
       </c>
       <c r="E40">
         <v>2002</v>
@@ -4405,38 +3946,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>536</v>
-      </c>
+    <row r="41" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D41" t="s">
-        <v>421</v>
+        <v>345</v>
       </c>
       <c r="E41">
         <v>2003</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>537</v>
-      </c>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D42" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="E42">
         <v>2003</v>
@@ -4445,198 +3980,168 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>538</v>
-      </c>
+    <row r="43" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="E43">
         <v>2004</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>539</v>
-      </c>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D44" t="s">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="E44">
         <v>2004</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>540</v>
-      </c>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45">
         <v>2004</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>541</v>
-      </c>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D46" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="E46">
         <v>2004</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>542</v>
-      </c>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>442</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
       <c r="D47" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="E47">
         <v>2004</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>543</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D48" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="E48">
         <v>2004</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>544</v>
-      </c>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>454</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
       <c r="D49" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="E49">
         <v>2004</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>545</v>
-      </c>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D50" t="s">
-        <v>477</v>
+        <v>401</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>636</v>
-      </c>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D51" t="s">
-        <v>478</v>
+        <v>402</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>546</v>
-      </c>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>408</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="E52">
         <v>2005</v>
@@ -4645,58 +4150,49 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>547</v>
-      </c>
+    <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D53" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="E53">
         <v>2005</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>548</v>
-      </c>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>447</v>
+        <v>371</v>
       </c>
       <c r="C54" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D54" t="s">
-        <v>505</v>
+        <v>429</v>
       </c>
       <c r="E54">
         <v>2005</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>549</v>
-      </c>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="C55" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D55" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="E55">
         <v>2006</v>
@@ -4705,98 +4201,83 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>550</v>
-      </c>
+    <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D56" t="s">
-        <v>513</v>
+        <v>437</v>
       </c>
       <c r="E56">
         <v>2006</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>551</v>
-      </c>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="C57" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D57" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="E57">
         <v>2007</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>552</v>
-      </c>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D58" t="s">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>553</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="C59" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D59" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>554</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D60" t="s">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="E60">
         <v>2009</v>
@@ -4805,18 +4286,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>555</v>
-      </c>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="E61">
         <v>2009</v>
@@ -4825,58 +4303,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>556</v>
-      </c>
+    <row r="62" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D62" t="s">
-        <v>480</v>
+        <v>404</v>
       </c>
       <c r="E62">
         <v>2010</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>557</v>
-      </c>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D63" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="E63">
         <v>2010</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>558</v>
-      </c>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D64" t="s">
-        <v>482</v>
+        <v>406</v>
       </c>
       <c r="E64">
         <v>2010</v>
@@ -4885,38 +4354,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>559</v>
-      </c>
+    <row r="65" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="C65" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D65" t="s">
-        <v>498</v>
+        <v>422</v>
       </c>
       <c r="E65">
         <v>2010</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>560</v>
-      </c>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D66" t="s">
-        <v>433</v>
+        <v>357</v>
       </c>
       <c r="E66">
         <v>2010</v>
@@ -4925,18 +4388,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>561</v>
-      </c>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="C67" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="E67">
         <v>2010</v>
@@ -4945,18 +4405,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>562</v>
-      </c>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D68" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="E68">
         <v>2010</v>
@@ -4965,18 +4422,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>563</v>
-      </c>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="E69">
         <v>2010</v>
@@ -4985,38 +4439,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>564</v>
-      </c>
+    <row r="70" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D70" t="s">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="E70">
         <v>2011</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>565</v>
-      </c>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D71" t="s">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="E71">
         <v>2011</v>
@@ -5025,18 +4473,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>566</v>
-      </c>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E72">
         <v>2012</v>
@@ -5045,18 +4490,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>567</v>
-      </c>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E73">
         <v>2012</v>
@@ -5065,78 +4507,66 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>568</v>
-      </c>
+    <row r="74" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D74" t="s">
-        <v>483</v>
+        <v>407</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>637</v>
-      </c>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="E75">
         <v>2012</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>569</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D76" t="s">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="E76">
         <v>2012</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>570</v>
-      </c>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="C77" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D77" t="s">
-        <v>527</v>
+        <v>451</v>
       </c>
       <c r="E77">
         <v>2012</v>
@@ -5145,18 +4575,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>571</v>
-      </c>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D78" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="E78">
         <v>2013</v>
@@ -5165,58 +4592,49 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>572</v>
-      </c>
+    <row r="79" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D79" t="s">
-        <v>487</v>
+        <v>411</v>
       </c>
       <c r="E79">
         <v>2013</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>573</v>
-      </c>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="C80" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="E80">
         <v>2013</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>574</v>
-      </c>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E81">
         <v>2014</v>
@@ -5225,98 +4643,83 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>575</v>
-      </c>
+    <row r="82" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>576</v>
-      </c>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="E83">
         <v>2014</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>577</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="C84" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D84" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="E84">
         <v>2014</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>578</v>
-      </c>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D85" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="E85">
         <v>2014</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>579</v>
-      </c>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="C86" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D86" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="E86">
         <v>2015</v>
@@ -5325,118 +4728,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>580</v>
-      </c>
+    <row r="87" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D87" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>581</v>
-      </c>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D88" t="s">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>582</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D89" t="s">
-        <v>416</v>
+        <v>340</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>583</v>
-      </c>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D90" t="s">
-        <v>509</v>
+        <v>433</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>584</v>
-      </c>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="C91" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
       <c r="D91" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>585</v>
-      </c>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="E92">
         <v>2016</v>
@@ -5445,58 +4830,49 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>586</v>
-      </c>
+    <row r="93" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="C93" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D93" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>587</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D94" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>588</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E95">
         <v>2017</v>
@@ -5505,178 +4881,151 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>638</v>
-      </c>
+    <row r="96" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D96" t="s">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="E96">
         <v>2017</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>589</v>
-      </c>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>354</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D97" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>590</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D98" t="s">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>591</v>
-      </c>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="C99" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D99" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>592</v>
-      </c>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D100" t="s">
-        <v>485</v>
+        <v>409</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>593</v>
-      </c>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D101" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="E101">
         <v>2018</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>594</v>
-      </c>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="E102">
         <v>2018</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>595</v>
-      </c>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="E103">
         <v>2018</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>596</v>
-      </c>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="C104" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D104" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="E104">
         <v>2018</v>
@@ -5685,58 +5034,49 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>597</v>
-      </c>
+    <row r="105" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="C105" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D105" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="E105">
         <v>2018</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>598</v>
-      </c>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="C106" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D106" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>639</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D107" t="s">
-        <v>510</v>
+        <v>434</v>
       </c>
       <c r="E107">
         <v>2018</v>
@@ -5745,78 +5085,66 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>599</v>
-      </c>
+    <row r="108" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>382</v>
+        <v>306</v>
       </c>
       <c r="C108" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D108" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="E108">
         <v>2018</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>600</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="C109" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D109" t="s">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="E109">
         <v>2018</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>601</v>
-      </c>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D110" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="E110">
         <v>2018</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>602</v>
-      </c>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="C111" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D111" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="E111">
         <v>2019</v>
@@ -5825,224 +5153,191 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>603</v>
-      </c>
+    <row r="112" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>440</v>
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D112" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="E112">
         <v>2019</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>604</v>
-      </c>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D113" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="E113">
         <v>2019</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>605</v>
-      </c>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D114" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="E114">
         <v>2019</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>606</v>
-      </c>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
       <c r="D115" t="s">
-        <v>519</v>
+        <v>443</v>
       </c>
       <c r="E115">
         <v>2019</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>607</v>
-      </c>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="C116" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D116" t="s">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="E116">
         <v>2019</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>608</v>
-      </c>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="C117" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D117" t="s">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="E117">
         <v>2019</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>609</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>707</v>
+        <v>544</v>
       </c>
       <c r="D118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E118">
         <v>2020</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>610</v>
-      </c>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D119" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="E119">
         <v>2020</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>611</v>
-      </c>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>427</v>
+        <v>351</v>
       </c>
       <c r="C120" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D120" t="s">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="E120">
         <v>2020</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>612</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="C121" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
       <c r="D121" t="s">
-        <v>439</v>
+        <v>363</v>
       </c>
       <c r="E121">
         <v>2020</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>640</v>
-      </c>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="C122" t="s">
-        <v>705</v>
+        <v>542</v>
       </c>
       <c r="D122" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="E122">
         <v>2021</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>653</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6059,7 +5354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475450A4-A2B6-47BA-B746-B5C9BBF465F5}">
   <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6071,10 +5366,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>719</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6082,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6090,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6098,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6106,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6114,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6122,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6130,7 +5425,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6138,7 +5433,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +5441,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6154,7 +5449,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6162,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6170,7 +5465,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6178,7 +5473,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6186,7 +5481,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6194,7 +5489,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6202,7 +5497,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6210,7 +5505,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6218,7 +5513,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6226,7 +5521,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6234,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6242,7 +5537,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6250,7 +5545,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6258,7 +5553,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6266,7 +5561,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6274,7 +5569,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6282,7 +5577,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,7 +5585,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6298,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6306,7 +5601,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6314,7 +5609,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6322,7 +5617,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6330,7 +5625,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6338,7 +5633,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6346,7 +5641,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6354,7 +5649,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6362,7 +5657,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6370,7 +5665,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6378,7 +5673,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6386,7 +5681,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6394,7 +5689,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6402,7 +5697,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6410,7 +5705,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6418,7 +5713,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6426,7 +5721,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6434,7 +5729,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6442,7 +5737,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6450,7 +5745,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6458,7 +5753,7 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6466,7 +5761,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6474,7 +5769,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6482,7 +5777,7 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6490,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6498,7 +5793,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +5801,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6514,7 +5809,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6522,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6530,7 +5825,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6538,7 +5833,7 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6546,7 +5841,7 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6554,7 +5849,7 @@
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6562,7 +5857,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6570,7 +5865,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +5873,7 @@
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +5881,7 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6594,7 +5889,7 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6602,7 +5897,7 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6610,7 +5905,7 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6618,7 +5913,7 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6626,7 +5921,7 @@
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6634,7 +5929,7 @@
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6642,7 +5937,7 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6650,7 +5945,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6658,7 +5953,7 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -6666,7 +5961,7 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -6674,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -6682,7 +5977,7 @@
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -6690,7 +5985,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -6698,7 +5993,7 @@
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -6706,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -6714,7 +6009,7 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +6017,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -6730,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -6738,7 +6033,7 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -6746,7 +6041,7 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -6754,7 +6049,7 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -6762,7 +6057,7 @@
         <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -6770,7 +6065,7 @@
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -6778,7 +6073,7 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -6786,7 +6081,7 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -6794,7 +6089,7 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -6802,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -6810,7 +6105,7 @@
         <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -6818,7 +6113,7 @@
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -6826,7 +6121,7 @@
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -6834,7 +6129,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -6842,7 +6137,7 @@
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -6850,7 +6145,7 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -6858,7 +6153,7 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -6866,7 +6161,7 @@
         <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -6874,7 +6169,7 @@
         <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -6882,7 +6177,7 @@
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -6890,7 +6185,7 @@
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -6898,7 +6193,7 @@
         <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -6906,7 +6201,7 @@
         <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -6914,7 +6209,7 @@
         <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -6922,7 +6217,7 @@
         <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -6930,7 +6225,7 @@
         <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -6938,7 +6233,7 @@
         <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -6946,7 +6241,7 @@
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -6954,7 +6249,7 @@
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -6962,7 +6257,7 @@
         <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -6970,7 +6265,7 @@
         <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -6978,7 +6273,7 @@
         <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -6986,7 +6281,7 @@
         <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -6994,7 +6289,7 @@
         <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -7002,7 +6297,7 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -7010,7 +6305,7 @@
         <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -7018,7 +6313,7 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -7026,7 +6321,7 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -7034,7 +6329,7 @@
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -7042,7 +6337,7 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -7050,7 +6345,7 @@
         <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -7058,7 +6353,7 @@
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -7066,7 +6361,7 @@
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -7074,7 +6369,7 @@
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -7082,7 +6377,7 @@
         <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -7090,7 +6385,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -7098,7 +6393,7 @@
         <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -7106,7 +6401,7 @@
         <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -7114,7 +6409,7 @@
         <v>64</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -7122,7 +6417,7 @@
         <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -7130,7 +6425,7 @@
         <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -7138,7 +6433,7 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -7146,7 +6441,7 @@
         <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -7154,7 +6449,7 @@
         <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -7162,7 +6457,7 @@
         <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -7170,7 +6465,7 @@
         <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -7178,7 +6473,7 @@
         <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -7186,7 +6481,7 @@
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -7194,7 +6489,7 @@
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -7202,7 +6497,7 @@
         <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -7210,7 +6505,7 @@
         <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -7218,7 +6513,7 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -7226,7 +6521,7 @@
         <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -7234,7 +6529,7 @@
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -7242,7 +6537,7 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -7250,7 +6545,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -7258,7 +6553,7 @@
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -7266,7 +6561,7 @@
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -7274,7 +6569,7 @@
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -7282,7 +6577,7 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -7290,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -7298,7 +6593,7 @@
         <v>78</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -7306,7 +6601,7 @@
         <v>78</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -7314,7 +6609,7 @@
         <v>78</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -7322,7 +6617,7 @@
         <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -7330,7 +6625,7 @@
         <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -7338,7 +6633,7 @@
         <v>80</v>
       </c>
       <c r="B159" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -7346,7 +6641,7 @@
         <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -7354,7 +6649,7 @@
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -7362,7 +6657,7 @@
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -7370,7 +6665,7 @@
         <v>82</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -7378,7 +6673,7 @@
         <v>82</v>
       </c>
       <c r="B164" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -7386,7 +6681,7 @@
         <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -7394,7 +6689,7 @@
         <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -7402,7 +6697,7 @@
         <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -7410,7 +6705,7 @@
         <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -7418,7 +6713,7 @@
         <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -7426,7 +6721,7 @@
         <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -7434,7 +6729,7 @@
         <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -7442,7 +6737,7 @@
         <v>86</v>
       </c>
       <c r="B172" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -7450,7 +6745,7 @@
         <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -7458,7 +6753,7 @@
         <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -7466,7 +6761,7 @@
         <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -7474,7 +6769,7 @@
         <v>88</v>
       </c>
       <c r="B176" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -7482,7 +6777,7 @@
         <v>88</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -7490,7 +6785,7 @@
         <v>89</v>
       </c>
       <c r="B178" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -7498,7 +6793,7 @@
         <v>89</v>
       </c>
       <c r="B179" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -7506,7 +6801,7 @@
         <v>89</v>
       </c>
       <c r="B180" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -7514,7 +6809,7 @@
         <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -7522,7 +6817,7 @@
         <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -7530,7 +6825,7 @@
         <v>91</v>
       </c>
       <c r="B183" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -7538,7 +6833,7 @@
         <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -7546,7 +6841,7 @@
         <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -7554,7 +6849,7 @@
         <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -7562,7 +6857,7 @@
         <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -7570,7 +6865,7 @@
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -7578,7 +6873,7 @@
         <v>95</v>
       </c>
       <c r="B189" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -7586,7 +6881,7 @@
         <v>95</v>
       </c>
       <c r="B190" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -7594,7 +6889,7 @@
         <v>96</v>
       </c>
       <c r="B191" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -7602,7 +6897,7 @@
         <v>96</v>
       </c>
       <c r="B192" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -7610,7 +6905,7 @@
         <v>97</v>
       </c>
       <c r="B193" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -7618,7 +6913,7 @@
         <v>97</v>
       </c>
       <c r="B194" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -7626,7 +6921,7 @@
         <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -7634,7 +6929,7 @@
         <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -7642,7 +6937,7 @@
         <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -7650,7 +6945,7 @@
         <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -7658,7 +6953,7 @@
         <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -7666,7 +6961,7 @@
         <v>99</v>
       </c>
       <c r="B200" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -7674,7 +6969,7 @@
         <v>100</v>
       </c>
       <c r="B201" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -7682,7 +6977,7 @@
         <v>100</v>
       </c>
       <c r="B202" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -7690,7 +6985,7 @@
         <v>101</v>
       </c>
       <c r="B203" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -7698,7 +6993,7 @@
         <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -7706,7 +7001,7 @@
         <v>102</v>
       </c>
       <c r="B205" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -7714,7 +7009,7 @@
         <v>102</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -7722,7 +7017,7 @@
         <v>103</v>
       </c>
       <c r="B207" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -7730,7 +7025,7 @@
         <v>104</v>
       </c>
       <c r="B208" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -7738,7 +7033,7 @@
         <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -7746,7 +7041,7 @@
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -7754,7 +7049,7 @@
         <v>105</v>
       </c>
       <c r="B211" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -7762,7 +7057,7 @@
         <v>106</v>
       </c>
       <c r="B212" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -7770,7 +7065,7 @@
         <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -7778,7 +7073,7 @@
         <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -7786,7 +7081,7 @@
         <v>108</v>
       </c>
       <c r="B215" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -7794,7 +7089,7 @@
         <v>108</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -7802,7 +7097,7 @@
         <v>109</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -7810,7 +7105,7 @@
         <v>109</v>
       </c>
       <c r="B218" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -7818,7 +7113,7 @@
         <v>110</v>
       </c>
       <c r="B219" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -7826,7 +7121,7 @@
         <v>111</v>
       </c>
       <c r="B220" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -7834,7 +7129,7 @@
         <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -7842,7 +7137,7 @@
         <v>112</v>
       </c>
       <c r="B222" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -7850,7 +7145,7 @@
         <v>112</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -7858,7 +7153,7 @@
         <v>113</v>
       </c>
       <c r="B224" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -7866,7 +7161,7 @@
         <v>113</v>
       </c>
       <c r="B225" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -7874,7 +7169,7 @@
         <v>114</v>
       </c>
       <c r="B226" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -7882,7 +7177,7 @@
         <v>114</v>
       </c>
       <c r="B227" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -7890,7 +7185,7 @@
         <v>115</v>
       </c>
       <c r="B228" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -7898,7 +7193,7 @@
         <v>115</v>
       </c>
       <c r="B229" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -7906,7 +7201,7 @@
         <v>115</v>
       </c>
       <c r="B230" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -7914,7 +7209,7 @@
         <v>116</v>
       </c>
       <c r="B231" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -7922,7 +7217,7 @@
         <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -7930,7 +7225,7 @@
         <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -7938,7 +7233,7 @@
         <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -7946,7 +7241,7 @@
         <v>118</v>
       </c>
       <c r="B235" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -7954,7 +7249,7 @@
         <v>118</v>
       </c>
       <c r="B236" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -7962,7 +7257,7 @@
         <v>118</v>
       </c>
       <c r="B237" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -7970,7 +7265,7 @@
         <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -7978,7 +7273,7 @@
         <v>119</v>
       </c>
       <c r="B239" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -7986,7 +7281,7 @@
         <v>120</v>
       </c>
       <c r="B240" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -7994,7 +7289,7 @@
         <v>120</v>
       </c>
       <c r="B241" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -8002,7 +7297,7 @@
         <v>121</v>
       </c>
       <c r="B242" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -8010,7 +7305,7 @@
         <v>121</v>
       </c>
       <c r="B243" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8026,10 +7321,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8040,44 +7335,51 @@
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>644</v>
+        <v>481</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>645</v>
+        <v>482</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>646</v>
+        <v>483</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>647</v>
+        <v>484</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>648</v>
+        <v>485</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>632</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>631</v>
+        <v>558</v>
       </c>
       <c r="D2" s="9">
         <v>44897</v>
@@ -8089,21 +7391,25 @@
         <v>97</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H2" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="9">
         <v>44898</v>
@@ -8115,21 +7421,25 @@
         <v>51</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="9">
         <v>44898</v>
@@ -8141,21 +7451,25 @@
         <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>718</v>
+        <v>555</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="9">
         <v>44898</v>
@@ -8164,24 +7478,28 @@
         <v>44899</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>304</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="9">
         <v>44903</v>
@@ -8190,24 +7508,28 @@
         <v>44904</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>305</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>630</v>
+        <v>475</v>
       </c>
       <c r="D7" s="9">
         <v>44904</v>
@@ -8219,21 +7541,25 @@
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H7" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>306</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="9">
         <v>44904</v>
@@ -8242,76 +7568,88 @@
         <v>44906</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>307</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>629</v>
+        <v>474</v>
       </c>
       <c r="D9" s="9">
         <v>44905</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
         <v>98</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="H9" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>308</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>628</v>
+        <v>473</v>
       </c>
       <c r="D10" s="9">
         <v>44905</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="H10" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>309</v>
-      </c>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="9">
         <v>44905</v>
@@ -8320,24 +7658,28 @@
         <v>44905</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>310</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>627</v>
+        <v>472</v>
       </c>
       <c r="D12" s="9">
         <v>44911</v>
@@ -8349,21 +7691,25 @@
         <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>311</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="9">
         <v>44912</v>
@@ -8372,50 +7718,58 @@
         <v>44913</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H13" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>312</v>
-      </c>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>626</v>
+        <v>471</v>
       </c>
       <c r="D14" s="9">
         <v>44918</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H14" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>313</v>
-      </c>
+    <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="D15" s="9">
         <v>44918</v>
@@ -8427,21 +7781,25 @@
         <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="330" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>314</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="363" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="9">
         <v>44919</v>
@@ -8453,21 +7811,25 @@
         <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>315</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="9">
         <v>44919</v>
@@ -8479,21 +7841,25 @@
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="H17" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>316</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>624</v>
+        <v>469</v>
       </c>
       <c r="D18" s="9">
         <v>44919</v>
@@ -8505,21 +7871,25 @@
         <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="H18" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>317</v>
-      </c>
+    <row r="19" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>623</v>
+        <v>468</v>
       </c>
       <c r="D19" s="9">
         <v>44919</v>
@@ -8531,21 +7901,25 @@
         <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>318</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="9">
         <v>44919</v>
@@ -8554,24 +7928,28 @@
         <v>44920</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>319</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="D21" s="9">
         <v>44924</v>
@@ -8583,21 +7961,25 @@
         <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H21" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>320</v>
-      </c>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="9">
         <v>44925</v>
@@ -8609,21 +7991,25 @@
         <v>48</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H22" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>321</v>
-      </c>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="D23" s="9">
         <v>44925</v>
@@ -8635,21 +8021,25 @@
         <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H23" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>322</v>
-      </c>
+    <row r="24" spans="2:11" ht="198" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="9">
         <v>44925</v>
@@ -8658,24 +8048,28 @@
         <v>44926</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>323</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="231" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" s="9">
         <v>44925</v>
@@ -8684,24 +8078,28 @@
         <v>44926</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>324</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="9">
         <v>44926</v>
@@ -8710,24 +8108,28 @@
         <v>44926</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="198" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>325</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>586</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="9">
         <v>44975</v>
@@ -8736,24 +8138,28 @@
         <v>44975</v>
       </c>
       <c r="F27" t="s">
-        <v>717</v>
+        <v>554</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>326</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="9">
         <v>45005</v>
@@ -8765,232 +8171,268 @@
         <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H28" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>327</v>
-      </c>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>329</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>716</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H32" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="9" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>333</v>
-      </c>
-      <c r="B35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>334</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>335</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E37" s="9">
         <v>44920</v>
@@ -8999,114 +8441,137 @@
         <v>54</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H37" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>336</v>
-      </c>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H38" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>337</v>
-      </c>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>338</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>617</v>
+        <v>462</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>617</v>
+        <v>462</v>
       </c>
       <c r="F40" t="s">
-        <v>618</v>
+        <v>463</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>339</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>168</v>
+        <v>546</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -9123,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/tiget/document/데이터정보.xlsx
+++ b/tiget/document/데이터정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F5EE0-AA1D-4794-BA92-EDE112C14659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D90B7-9B1A-46C2-A617-5105358301A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="604">
   <si>
     <t>장르코드</t>
   </si>
@@ -2265,6 +2265,120 @@
   <si>
     <t>주요장르(X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가렛 애프터 섹스 내한공연 (Cigarettes After Sex Live in Seoul)</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016559_p.gif</t>
+  </si>
+  <si>
+    <t>KBS 아레나</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016559</t>
+  </si>
+  <si>
+    <t>시가렛 애프터 섹스</t>
+  </si>
+  <si>
+    <t>2022 론 브랜튼의 〈재즈 크리스마스!〉</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22012518_p.gif</t>
+  </si>
+  <si>
+    <t>마포아트센터 아트홀 맥</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22012518</t>
+  </si>
+  <si>
+    <t>론 브랜튼</t>
+  </si>
+  <si>
+    <t>나윤선 〈Waking World〉</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016144_p.gif</t>
+  </si>
+  <si>
+    <t>영화의전당 하늘연극장</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016144</t>
+  </si>
+  <si>
+    <t>나윤선</t>
+  </si>
+  <si>
+    <t>박물관으로간피아노－이선지</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015852_p.gif</t>
+  </si>
+  <si>
+    <t>목인박물관</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015852</t>
+  </si>
+  <si>
+    <t>이선지</t>
+  </si>
+  <si>
+    <t>디어클라우드 소극장 콘서트 〈Farewell 2022〉</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016307_p.gif</t>
+  </si>
+  <si>
+    <t>클럽 온에어</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016307</t>
+  </si>
+  <si>
+    <t>디어클라우드</t>
+  </si>
+  <si>
+    <t>디에이드 연말 단독 콘서트 ‘Sequence’</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016129_p.gif</t>
+  </si>
+  <si>
+    <t>성신여대 운정그린캠퍼스 대강당</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016129</t>
+  </si>
+  <si>
+    <t>디에이드</t>
+  </si>
+  <si>
+    <t>https://w.namu.la/s/b4ef9022cc35c7a35c68dca50d458fb529ffc46930a87a873edf5eebe4b10b401e6b71cc6545879242e5b5fa786907d52b94816e007387696f84c20f7e1451f69cba3f9fbd71a6a252962ea3ed0bdaecc35fe534f609b11a692d8bd191790480cd37159a68e8c40998a395d42f1ffed7</t>
+  </si>
+  <si>
+    <t>팝</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_4714_02.gif</t>
+  </si>
+  <si>
+    <t>재즈</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/17/04/0400041704_41151_02545.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1487_011012.gif</t>
+  </si>
+  <si>
+    <t>인디</t>
+  </si>
+  <si>
+    <t>https://w.namu.la/s/62aaa548eaaf064cb28db85d36c061642dce300f86d53d5eb169a46d2f677fc480c8e23fdd0829b0873dbf20a4dc6ab5bae3413cda30ceeeb97db859d428bcb56a41a60018eee479fa1185a8a5409dfeae6ec5bef9e8b9c21951e87958d51be3524cf662cc498b3e5041752f44c977cb</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2340,6 +2454,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2753,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4676,7 +4793,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>245</v>
       </c>
@@ -4693,7 +4810,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>250</v>
       </c>
@@ -4710,7 +4827,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>252</v>
       </c>
@@ -4727,7 +4844,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>320</v>
       </c>
@@ -4744,7 +4861,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>246</v>
       </c>
@@ -4761,7 +4878,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>68</v>
       </c>
@@ -4778,7 +4895,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>266</v>
       </c>
@@ -4795,7 +4912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>294</v>
       </c>
@@ -4812,7 +4929,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>301</v>
       </c>
@@ -4829,7 +4946,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>218</v>
       </c>
@@ -4844,6 +4961,96 @@
       </c>
       <c r="F122" s="1" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E124" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E126" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E127" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4858,10 +5065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475450A4-A2B6-47BA-B746-B5C9BBF465F5}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6812,6 +7019,46 @@
       </c>
       <c r="B243" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>122</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>123</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
+        <v>124</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
+        <v>125</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
+        <v>126</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6827,10 +7074,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7329,7 +7576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="363" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="198" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -7617,7 +7864,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="231" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>85</v>
       </c>
@@ -7649,7 +7896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -7681,7 +7928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="198" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>524</v>
       </c>
@@ -7873,7 +8120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>182</v>
       </c>
@@ -7905,7 +8152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>118</v>
       </c>
@@ -7937,7 +8184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -7969,7 +8216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>124</v>
       </c>
@@ -8001,7 +8248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
@@ -8033,7 +8280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
@@ -8065,7 +8312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>123</v>
       </c>
@@ -8097,7 +8344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>407</v>
       </c>
@@ -8129,7 +8376,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>122</v>
       </c>
@@ -8159,6 +8406,204 @@
       </c>
       <c r="K41" s="6" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D42" s="10">
+        <v>44962</v>
+      </c>
+      <c r="E42" s="10">
+        <v>44962</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J42" s="5">
+        <v>41</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" s="10">
+        <v>44920</v>
+      </c>
+      <c r="E43" s="10">
+        <v>44920</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J43" s="5">
+        <v>42</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" s="10">
+        <v>44912</v>
+      </c>
+      <c r="E44" s="10">
+        <v>44912</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J44" s="5">
+        <v>43</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D45" s="10">
+        <v>44905</v>
+      </c>
+      <c r="E45" s="10">
+        <v>44905</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J45" s="5">
+        <v>44</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D46" s="10">
+        <v>44923</v>
+      </c>
+      <c r="E46" s="10">
+        <v>44925</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J46" s="5">
+        <v>45</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D47" s="10">
+        <v>44912</v>
+      </c>
+      <c r="E47" s="10">
+        <v>44913</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J47" s="5">
+        <v>46</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -8173,10 +8618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA5C4D9-35A9-4254-9DD0-C575BAA3106D}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8763,6 +9208,54 @@
       </c>
       <c r="B73" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>41</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>42</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>43</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>44</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>45</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>46</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8774,10 +9267,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9585,6 +10078,54 @@
         <v>5</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>41</v>
+      </c>
+      <c r="B101" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>42</v>
+      </c>
+      <c r="B102" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>43</v>
+      </c>
+      <c r="B103" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>44</v>
+      </c>
+      <c r="B104" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>45</v>
+      </c>
+      <c r="B105" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>46</v>
+      </c>
+      <c r="B106" s="5">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
     <sortCondition ref="A2:A100"/>
